--- a/insurance-drools-xls/src/main/resources/insuranceRules/insuranceCalc.xlsx
+++ b/insurance-drools-xls/src/main/resources/insuranceRules/insuranceCalc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -710,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
